--- a/biology/Zoologie/Refuge_d'oiseaux_migrateurs_des_Îles-Sainte-Marie/Refuge_d'oiseaux_migrateurs_des_Îles-Sainte-Marie.xlsx
+++ b/biology/Zoologie/Refuge_d'oiseaux_migrateurs_des_Îles-Sainte-Marie/Refuge_d'oiseaux_migrateurs_des_Îles-Sainte-Marie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Refuge_d%27oiseaux_migrateurs_des_%C3%8Eles-Sainte-Marie</t>
+          <t>Refuge_d'oiseaux_migrateurs_des_Îles-Sainte-Marie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le refuge d'oiseaux migrateurs des Îles-Sainte-Marie est une aire protégée du Canada et l'un des 28 refuges d'oiseaux migrateurs situé dans la province de Québec. Ce refuge a pour mission de protéger un site de nidification important pour l'Eider à duvet et de nombreux autres oiseaux marins. Le site est reconnu comme zone importante pour la conservation des oiseaux (ZICO).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Refuge_d%27oiseaux_migrateurs_des_%C3%8Eles-Sainte-Marie</t>
+          <t>Refuge_d'oiseaux_migrateurs_des_Îles-Sainte-Marie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Toponymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'origine du nom des îles Sainte-Marie demeure inconnu. Jacques Cartier les avait désigné en 1535 sous le nom d'« isles saint Germain » et Louis Joliet en 1694 sous le nom « isles stes maries »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'origine du nom des îles Sainte-Marie demeure inconnu. Jacques Cartier les avait désigné en 1535 sous le nom d'« isles saint Germain » et Louis Joliet en 1694 sous le nom « isles stes maries ».
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Refuge_d%27oiseaux_migrateurs_des_%C3%8Eles-Sainte-Marie</t>
+          <t>Refuge_d'oiseaux_migrateurs_des_Îles-Sainte-Marie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le refuge a une superficie de 40,03 km2 dont 3,9 km2 sont situés en milieu terrestre et 36,13 km2 en milieu marin[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le refuge a une superficie de 40,03 km2 dont 3,9 km2 sont situés en milieu terrestre et 36,13 km2 en milieu marin.
 </t>
         </is>
       </c>
